--- a/medicine/Enfance/Alexis_Lecaye/Alexis_Lecaye.xlsx
+++ b/medicine/Enfance/Alexis_Lecaye/Alexis_Lecaye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexis Lecaye est un écrivain, scénariste et réalisateur de télévision français né à Alexandrie en Égypte le 22 août 1951. Il est le frère aîné de Nadja et de Grégoire Solotareff et l'oncle de Raphaël Fejtö, auteur-illustrateur de livres pour la jeunesse.  Il a signé aussi des romans sous le nom de Alexandre Terrel.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexis Lecaye est le fils d'Henri El-Kayem, un médecin d'origine libanaise, et d'Olga Solotareff, d'origine russe née en France, qui est auteure de littérature d'enfance et de jeunesse sous le pseudonyme d'Olga Lecaye. Au sein d'une fratrie de quatre enfants, figurent aussi les auteurs-dessinateurs Grégoire Solotareff et Nadja. Alexis Lecaye fait des études en histoire avant d'amorcer une carrière de scénariste, puis de chroniqueur littéraire au journal Le Monde et d'écrivain.
 Il publie en 1980 Les Pirates du paradis, un important essai sur la science-fiction. Il signe ensuite chez Fayard des thrillers, dont Le Bagnard, la voyante et l'espion, prix du suspense français 1983, et des pastiches de Sherlock Holmes. Il fait aussi paraître plusieurs romans policiers dans la collection Le Masque, notamment Le témoin est à la noce, prix du roman d'aventures 1984, et, sous le pseudonyme d'Alexandre Terrel, une série de sept titres mettant en scène Antoine Chabrier, croque-mort et détective, qui exploite la veine de l'humour noir.
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Signés Alexis Lecaye
-La Dissolution, Robert Laffont, 1980 ; réédition Le Masque no 2291, 1996
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Signés Alexis Lecaye</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Dissolution, Robert Laffont, 1980 ; réédition Le Masque no 2291, 1996
 Marx et Sherlock Holmes, Fayard noir, 1981 ; réédition, Le Livre de poche no 6121, 1985
 L'Île des magiciennes, Fayard, 1982
 Philippine, Fayard, 1983
@@ -564,72 +586,293 @@
 Les Deux Justiciers, Le Masque no 2132, 1993
 Le Juge et le Marabout, Le Masque no 2164, 1994
 Les Carnets secrets d'Hyppolite Vernet, Le Masque no 2206, 1994
-Loup y es-tu ?, Édition du Masque, 2012
-Série Les Dames, signée Alexis Lecaye
-Dame de Cœur, Éditions du Masque, 2002 ; réédition, Le Masque no 2519, 2009
+Loup y es-tu ?, Édition du Masque, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Les Dames, signée Alexis Lecaye</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dame de Cœur, Éditions du Masque, 2002 ; réédition, Le Masque no 2519, 2009
 Dame de Pique, Éditions du Masque, 2005
 Dame de Carreau, Éditions du Masque, 2007
 Dame de Trèfle, Éditions du Masque, 2011
 Dame d'atout, Éditions du Masque, 2013
-Dame de Feu, Editions du Masque, 2014
-Signés Alexandre Terrel
-Rendez-vous sur ma tombe, Le Masque no 1733, 1983
+Dame de Feu, Editions du Masque, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Signés Alexandre Terrel</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rendez-vous sur ma tombe, Le Masque no 1733, 1983
 Le témoin est à la noce, Le Masque no 1749, 1984; réédition, Le Club des Masques no 611, 1991
 La Morte à la fenêtre, Le Masque no 1757, 1984 ; réédition, Le Club des Masques no 612, 1991
-L'Homme qui ne voulait pas tuer, Le Masque no 1777, 1984
-Série Antoine Chabrier, le Croque-mort, signée Alexandre Terrel
-Le Croque-mort de ma vie, Le Masque no 1792, 1985
+L'Homme qui ne voulait pas tuer, Le Masque no 1777, 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Antoine Chabrier, le Croque-mort, signée Alexandre Terrel</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Croque-mort de ma vie, Le Masque no 1792, 1985
 Le Croque-mort s'en va-t'en bière, Le Masque no 1801, 1985
 Le Croque-mort et les morts vivants, Le Masque no 1822, 1986
 Le Croque-mort et sa veuve, Le Masque no 1867, 1987
 Enterrez le Croque-mort, Le Masque no 1904, 1987
 Le Croque-mort a croqué la pomme, Le Masque no 1925, 1988
-Le Croque-mort s'en mord les doigts, Le Masque no 1997, 1990
-Ouvrages de littérature d'enfance et de jeunesse
-La Bergère qui mangeait ses moutons, L'École des loisirs, 1991 ; réédition, Mouche poche, 1992
+Le Croque-mort s'en mord les doigts, Le Masque no 1997, 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Bergère qui mangeait ses moutons, L'École des loisirs, 1991 ; réédition, Mouche poche, 1992
 Trolik, L'École des loisirs, 1991
 Georges Gros-Dos a disparu, Gallimard jeunesse-Giboulées, 1993 ; réédition, Folio Benjamin no 282, 1995
 Où est passée Priss la poupée?, Gallimard jeunesse-Giboulées, 1993 ; réédition, Folio Benjamin no 283, 1995
 La Voiture de pompiers bleue, Gallimard jeunesse-Giboulées, 1993 ; réédition, Folio Benjamin no 298, 1996
 Le Tournevis mystérieux, Gallimard jeunesse-Giboulées, 1993 ; réédition, Folio Benjamin no 299, 1996
-Le Démon de l'école, Gallimard, Folio junior no 806, 1997
-Autre publication
-Les Pirates du paradis, essai sur la science-fiction, Denoël, 1980 ; réédition, Denoël-Gonthier, coll. Médiations no 212, 1981</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alexis_Lecaye</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Le Démon de l'école, Gallimard, Folio junior no 806, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Pirates du paradis, essai sur la science-fiction, Denoël, 1980 ; réédition, Denoël-Gonthier, coll. Médiations no 212, 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adaptations de ses romans
-1989 : Un week-end à tuer (téléfilm), adaptation du roman éponyme pour la série télévisée française Le Masque
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Adaptations de ses romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1989 : Un week-end à tuer (téléfilm), adaptation du roman éponyme pour la série télévisée française Le Masque
 1993 : Deux justiciers dans la ville (téléfilm), adaptation du roman Les Deux Justiciers
-2000 : Confession d'un tueur, épisode de la série télévisée Vertiges
-Comme scénariste
-1990 : Deux flics à Belleville (téléfilm)
+2000 : Confession d'un tueur, épisode de la série télévisée Vertiges</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1990 : Deux flics à Belleville (téléfilm)
 1992-2014 : Julie Lescaut
 1992 : Les Légumes maudits, épisode de la série télévisée Imogène, scénariste en collaboration avec Michèle Letellier
 1992 : Jo et Milou (téléfilm), scénariste en collaboration avec Odile Barski et Eric Kristy
@@ -653,9 +896,43 @@
 2014 : Dame de cendres
 2015 : Dame de feu
 2015 : Dame de glace
-2018 : Le Chalet (mini-série)
-Comme réalisateur
-2003 : L'Ombre sur le mur (téléfilm)
+2018 : Le Chalet (mini-série)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Comme réalisateur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2003 : L'Ombre sur le mur (téléfilm)
 2003 : Qu'elle est belle la quarantaine ! (téléfilm)
 2011 - 2015 : Les Dames (série télévisée d'après ses romans homonymes) :
 2012 : Dame de carreau (téléfilm)
@@ -664,35 +941,37 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alexis_Lecaye</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexis_Lecaye</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Prix du Suspense français 1983 pour Le Bagnard, la voyante et l'espion
 Prix du roman d'aventures 1984 pour Le témoin est à la noce
-Festival de la fiction TV de La Rochelle 2015 : Meilleur scénario pour Dame de feu[1]</t>
+Festival de la fiction TV de La Rochelle 2015 : Meilleur scénario pour Dame de feu</t>
         </is>
       </c>
     </row>
